--- a/artfynd/A 20396-2022.xlsx
+++ b/artfynd/A 20396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101775819</v>
+        <v>101774542</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>96237</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>220093</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -731,10 +735,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>567890.146411219</v>
+        <v>567847.3860201587</v>
       </c>
       <c r="R2" t="n">
-        <v>6676825.326947801</v>
+        <v>6676956.727084515</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -766,7 +770,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -776,7 +780,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,22 +795,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101775508</v>
+        <v>101774450</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>93868</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -815,32 +819,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>567931.7906619203</v>
+        <v>567869.409834059</v>
       </c>
       <c r="R3" t="n">
-        <v>6676834.54900873</v>
+        <v>6676977.014183999</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101774746</v>
+        <v>101775819</v>
       </c>
       <c r="B4" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,45 +933,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Avesta, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>567863.9375606392</v>
+        <v>567890.146411219</v>
       </c>
       <c r="R4" t="n">
-        <v>6676842.731599597</v>
+        <v>6676825.326947801</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1003,7 +1007,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1013,12 +1017,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Mat hål</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,7 +1044,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101775559</v>
+        <v>101775508</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1080,19 +1079,10 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1100,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>567920.9165920488</v>
+        <v>567931.7906619203</v>
       </c>
       <c r="R5" t="n">
-        <v>6676830.371183628</v>
+        <v>6676834.54900873</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1135,7 +1125,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1145,7 +1135,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1160,22 +1150,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101779914</v>
+        <v>101774746</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,25 +1174,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1210,27 +1200,19 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Avesta, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>567971.7663531044</v>
+        <v>567863.9375606392</v>
       </c>
       <c r="R6" t="n">
-        <v>6676853.183049097</v>
+        <v>6676842.731599597</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1262,7 +1244,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1272,7 +1254,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Mat hål</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1287,19 +1274,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101775856</v>
+        <v>101775559</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1334,7 +1321,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1342,7 +1329,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1350,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>567863.1820311426</v>
+        <v>567920.9165920488</v>
       </c>
       <c r="R7" t="n">
-        <v>6676829.796184054</v>
+        <v>6676830.371183628</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1385,7 +1376,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1395,7 +1386,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1410,22 +1401,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101774542</v>
+        <v>101779914</v>
       </c>
       <c r="B8" t="n">
-        <v>96237</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1434,40 +1425,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220093</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -1477,10 +1468,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>567847.3860201587</v>
+        <v>567971.7663531044</v>
       </c>
       <c r="R8" t="n">
-        <v>6676956.727084515</v>
+        <v>6676853.183049097</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1512,7 +1503,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1522,7 +1513,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1549,7 +1540,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101775564</v>
+        <v>101775856</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1584,7 +1575,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1600,10 +1591,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>567920.0505219861</v>
+        <v>567863.1820311426</v>
       </c>
       <c r="R9" t="n">
-        <v>6676823.397400577</v>
+        <v>6676829.796184054</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1635,7 +1626,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1645,7 +1636,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1672,7 +1663,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101775565</v>
+        <v>101775564</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
@@ -1705,7 +1696,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>567925.7637084418</v>
+        <v>567920.0505219861</v>
       </c>
       <c r="R10" t="n">
-        <v>6676837.41890596</v>
+        <v>6676823.397400577</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1774,19 +1774,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101779916</v>
+        <v>101775565</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1819,21 +1819,8 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1841,10 +1828,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>567972.6507871181</v>
+        <v>567925.7637084418</v>
       </c>
       <c r="R11" t="n">
-        <v>6676859.163185491</v>
+        <v>6676837.41890596</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1876,7 +1863,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1886,7 +1873,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1901,19 +1888,19 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101775890</v>
+        <v>101779916</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1948,7 +1935,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1956,7 +1943,11 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1964,10 +1955,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>567873.0981311289</v>
+        <v>567972.6507871181</v>
       </c>
       <c r="R12" t="n">
-        <v>6676805.131272291</v>
+        <v>6676859.163185491</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1999,7 +1990,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2009,7 +2000,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2036,7 +2027,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101775738</v>
+        <v>101775890</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2071,7 +2062,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2087,10 +2078,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567873.9455013226</v>
+        <v>567873.0981311289</v>
       </c>
       <c r="R13" t="n">
-        <v>6676839.93550191</v>
+        <v>6676805.131272291</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2122,7 +2113,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2132,7 +2123,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2159,7 +2150,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101775684</v>
+        <v>101775738</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2192,7 +2183,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567898.9561973718</v>
+        <v>567873.9455013226</v>
       </c>
       <c r="R14" t="n">
-        <v>6676833.442172489</v>
+        <v>6676839.93550191</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2273,7 +2273,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101774950</v>
+        <v>101775684</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567968.1916468774</v>
+        <v>567898.9561973718</v>
       </c>
       <c r="R15" t="n">
-        <v>6676831.24963467</v>
+        <v>6676833.442172489</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101775715</v>
+        <v>101774950</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2421,11 +2421,7 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2433,10 +2429,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567878.7189128834</v>
+        <v>567968.1916468774</v>
       </c>
       <c r="R16" t="n">
-        <v>6676850.957572321</v>
+        <v>6676831.24963467</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2468,7 +2464,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2478,7 +2474,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2505,7 +2501,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101775512</v>
+        <v>101775715</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2538,17 +2534,12 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2556,10 +2547,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567927.6988580292</v>
+        <v>567878.7189128834</v>
       </c>
       <c r="R17" t="n">
-        <v>6676840.436715043</v>
+        <v>6676850.957572321</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2591,7 +2582,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2601,7 +2592,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2628,7 +2619,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101775339</v>
+        <v>101775512</v>
       </c>
       <c r="B18" t="n">
         <v>96334</v>
@@ -2663,7 +2654,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2679,10 +2670,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567961.058589388</v>
+        <v>567927.6988580292</v>
       </c>
       <c r="R18" t="n">
-        <v>6676840.062643005</v>
+        <v>6676840.436715043</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2714,7 +2705,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2724,7 +2715,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2751,7 +2742,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101775703</v>
+        <v>101775339</v>
       </c>
       <c r="B19" t="n">
         <v>96334</v>
@@ -2786,7 +2777,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2802,10 +2793,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567893.7953871277</v>
+        <v>567961.058589388</v>
       </c>
       <c r="R19" t="n">
-        <v>6676843.285874985</v>
+        <v>6676840.062643005</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2837,7 +2828,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2847,7 +2838,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2874,10 +2865,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101774450</v>
+        <v>101775703</v>
       </c>
       <c r="B20" t="n">
-        <v>93868</v>
+        <v>96334</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2886,28 +2877,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>567869.409834059</v>
+        <v>567893.7953871277</v>
       </c>
       <c r="R20" t="n">
-        <v>6676977.014183999</v>
+        <v>6676843.285874985</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 20396-2022.xlsx
+++ b/artfynd/A 20396-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101774542</v>
+        <v>101775819</v>
       </c>
       <c r="B2" t="n">
-        <v>96237</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220093</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -735,10 +731,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>567847.3860201587</v>
+        <v>567890.146411219</v>
       </c>
       <c r="R2" t="n">
-        <v>6676956.727084515</v>
+        <v>6676825.326947801</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -770,7 +766,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -780,7 +776,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:05</t>
+          <t>17:55</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -795,22 +791,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>101774450</v>
+        <v>101775508</v>
       </c>
       <c r="B3" t="n">
-        <v>93868</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,28 +815,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>567869.409834059</v>
+        <v>567931.7906619203</v>
       </c>
       <c r="R3" t="n">
-        <v>6676977.014183999</v>
+        <v>6676834.54900873</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:01</t>
+          <t>17:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Philipp Weiss</t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101775819</v>
+        <v>101774746</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,49 +933,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Avesta, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>567890.146411219</v>
+        <v>567863.9375606392</v>
       </c>
       <c r="R4" t="n">
-        <v>6676825.326947801</v>
+        <v>6676842.731599597</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1007,7 +1003,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1017,7 +1013,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:55</t>
+          <t>17:17</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Mat hål</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1044,7 +1045,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101775508</v>
+        <v>101775559</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1079,10 +1080,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1090,10 +1100,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>567931.7906619203</v>
+        <v>567920.9165920488</v>
       </c>
       <c r="R5" t="n">
-        <v>6676834.54900873</v>
+        <v>6676830.371183628</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1125,7 +1135,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1135,7 +1145,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:37</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,22 +1160,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>101774746</v>
+        <v>101779914</v>
       </c>
       <c r="B6" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,25 +1184,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1200,19 +1210,27 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Avesta, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>567863.9375606392</v>
+        <v>567971.7663531044</v>
       </c>
       <c r="R6" t="n">
-        <v>6676842.731599597</v>
+        <v>6676853.183049097</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1244,7 +1262,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>17:17</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1254,12 +1272,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>17:17</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Mat hål</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1274,19 +1287,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Annelie Hilmerby</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>101775559</v>
+        <v>101775856</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1321,7 +1334,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1329,11 +1342,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1341,10 +1350,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>567920.9165920488</v>
+        <v>567863.1820311426</v>
       </c>
       <c r="R7" t="n">
-        <v>6676830.371183628</v>
+        <v>6676829.796184054</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1376,7 +1385,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1386,7 +1395,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>17:58</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,22 +1410,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Annelie Hilmerby</t>
+          <t xml:space="preserve">FREDRIK  Månsson </t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>101779914</v>
+        <v>101774542</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>96237</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1425,40 +1434,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>220093</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -1468,10 +1477,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>567971.7663531044</v>
+        <v>567847.3860201587</v>
       </c>
       <c r="R8" t="n">
-        <v>6676853.183049097</v>
+        <v>6676956.727084515</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1503,7 +1512,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1513,7 +1522,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>17:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1540,7 +1549,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>101775856</v>
+        <v>101775564</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1575,7 +1584,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1591,10 +1600,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>567863.1820311426</v>
+        <v>567920.0505219861</v>
       </c>
       <c r="R9" t="n">
-        <v>6676829.796184054</v>
+        <v>6676823.397400577</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1626,7 +1635,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1636,7 +1645,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>17:58</t>
+          <t>17:41</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1663,7 +1672,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>101775564</v>
+        <v>101775565</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
@@ -1696,16 +1705,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>567920.0505219861</v>
+        <v>567925.7637084418</v>
       </c>
       <c r="R10" t="n">
-        <v>6676823.397400577</v>
+        <v>6676837.41890596</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1774,19 +1774,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>fanny westling</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101775565</v>
+        <v>101779916</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1819,8 +1819,21 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1828,10 +1841,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>567925.7637084418</v>
+        <v>567972.6507871181</v>
       </c>
       <c r="R11" t="n">
-        <v>6676837.41890596</v>
+        <v>6676859.163185491</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1863,7 +1876,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1873,7 +1886,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>17:41</t>
+          <t>20:43</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1888,19 +1901,19 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>fanny westling</t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101779916</v>
+        <v>101775890</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1935,7 +1948,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1943,11 +1956,7 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1955,10 +1964,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>567972.6507871181</v>
+        <v>567873.0981311289</v>
       </c>
       <c r="R12" t="n">
-        <v>6676859.163185491</v>
+        <v>6676805.131272291</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1990,7 +1999,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2000,7 +2009,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>20:43</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2027,7 +2036,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>101775890</v>
+        <v>101775738</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2062,7 +2071,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2078,10 +2087,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>567873.0981311289</v>
+        <v>567873.9455013226</v>
       </c>
       <c r="R13" t="n">
-        <v>6676805.131272291</v>
+        <v>6676839.93550191</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2113,7 +2122,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2123,7 +2132,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>18:01</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2150,7 +2159,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>101775738</v>
+        <v>101775684</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2183,16 +2192,7 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>567873.9455013226</v>
+        <v>567898.9561973718</v>
       </c>
       <c r="R14" t="n">
-        <v>6676839.93550191</v>
+        <v>6676833.442172489</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>17:49</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2273,7 +2273,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101775684</v>
+        <v>101774950</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>567898.9561973718</v>
+        <v>567968.1916468774</v>
       </c>
       <c r="R15" t="n">
-        <v>6676833.442172489</v>
+        <v>6676831.24963467</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>17:49</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101774950</v>
+        <v>101775715</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2421,7 +2421,11 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2429,10 +2433,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>567968.1916468774</v>
+        <v>567878.7189128834</v>
       </c>
       <c r="R16" t="n">
-        <v>6676831.24963467</v>
+        <v>6676850.957572321</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2464,7 +2468,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2474,7 +2478,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2501,7 +2505,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101775715</v>
+        <v>101775512</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2534,12 +2538,17 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2547,10 +2556,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>567878.7189128834</v>
+        <v>567927.6988580292</v>
       </c>
       <c r="R17" t="n">
-        <v>6676850.957572321</v>
+        <v>6676840.436715043</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2582,7 +2591,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2592,7 +2601,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2619,7 +2628,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101775512</v>
+        <v>101775339</v>
       </c>
       <c r="B18" t="n">
         <v>96334</v>
@@ -2654,7 +2663,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2670,10 +2679,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>567927.6988580292</v>
+        <v>567961.058589388</v>
       </c>
       <c r="R18" t="n">
-        <v>6676840.436715043</v>
+        <v>6676840.062643005</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2705,7 +2714,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2715,7 +2724,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:31</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2742,7 +2751,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101775339</v>
+        <v>101775703</v>
       </c>
       <c r="B19" t="n">
         <v>96334</v>
@@ -2777,7 +2786,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2793,10 +2802,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>567961.058589388</v>
+        <v>567893.7953871277</v>
       </c>
       <c r="R19" t="n">
-        <v>6676840.062643005</v>
+        <v>6676843.285874985</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2828,7 +2837,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2838,7 +2847,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:31</t>
+          <t>17:51</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2865,10 +2874,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101775703</v>
+        <v>101774450</v>
       </c>
       <c r="B20" t="n">
-        <v>96334</v>
+        <v>93868</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2877,37 +2886,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>567893.7953871277</v>
+        <v>567869.409834059</v>
       </c>
       <c r="R20" t="n">
-        <v>6676843.285874985</v>
+        <v>6676977.014183999</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>17:51</t>
+          <t>17:01</t>
         </is>
       </c>
       <c r="AD20" t="b">
